--- a/model/results/mix2_ggpos_h2pos/v_sec.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_sec.xlsx
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777763</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999961</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111112</v>
+        <v>0.4527777777777789</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1657,7 +1657,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D11" t="n">
         <v>1.633110884353741</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="12">
@@ -1701,7 +1701,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D13" t="n">
         <v>1.633110884353741</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="14">
@@ -1720,19 +1720,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353744</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081666</v>
       </c>
     </row>
     <row r="15">
@@ -1789,7 +1789,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D17" t="n">
         <v>1.633110884353741</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="18">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="21">
@@ -1877,7 +1877,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D21" t="n">
         <v>1.633110884353741</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="22">
@@ -1899,7 +1899,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D22" t="n">
         <v>1.633110884353742</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="23">
@@ -1965,7 +1965,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D25" t="n">
         <v>1.633110884353741</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="26">
@@ -1987,7 +1987,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D26" t="n">
         <v>1.633110884353742</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="27">
@@ -2072,19 +2072,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
@@ -2097,7 +2097,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D31" t="n">
         <v>1.633110884353741</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="32">
@@ -2138,19 +2138,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="34">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -2182,19 +2182,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="36">
@@ -2226,19 +2226,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="38">
@@ -2432,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -2517,16 +2517,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111112</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -2690,19 +2690,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353744</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081666</v>
       </c>
     </row>
     <row r="15">
@@ -2822,19 +2822,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="21">
@@ -3042,19 +3042,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
@@ -3130,19 +3130,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -3487,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777789</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353744</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081666</v>
       </c>
     </row>
     <row r="15">
@@ -3792,19 +3792,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="21">
@@ -4012,19 +4012,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
@@ -4100,19 +4100,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4416,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777781</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000003</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -4457,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111112</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -4630,19 +4630,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353744</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081666</v>
       </c>
     </row>
     <row r="15">
@@ -4762,19 +4762,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="21">
@@ -4982,19 +4982,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
@@ -5070,19 +5070,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111111</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -5342,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999977</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -5364,13 +5364,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777783</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999977</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -5386,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777781</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000003</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -5427,16 +5427,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111111</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666666</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5537,7 +5537,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D11" t="n">
         <v>1.633110884353741</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="12">
@@ -5559,7 +5559,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D12" t="n">
         <v>1.633110884353741</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="13">
@@ -5581,7 +5581,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D13" t="n">
         <v>1.633110884353741</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="14">
@@ -5600,19 +5600,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442185</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353745</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="15">
@@ -5625,7 +5625,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D15" t="n">
         <v>1.633110884353741</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.385651020408164</v>
       </c>
     </row>
     <row r="16">
@@ -5647,7 +5647,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D16" t="n">
         <v>1.633110884353742</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="17">
@@ -5669,7 +5669,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D17" t="n">
         <v>1.633110884353741</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="18">
@@ -5713,7 +5713,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D19" t="n">
         <v>1.633110884353741</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442185</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353745</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="21">
@@ -5757,7 +5757,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D21" t="n">
         <v>1.633110884353741</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="22">
@@ -5801,7 +5801,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D23" t="n">
         <v>1.633110884353741</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="24">
@@ -5823,7 +5823,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D24" t="n">
         <v>1.633110884353741</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="25">
@@ -5933,7 +5933,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D29" t="n">
         <v>1.633110884353741</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="30">
@@ -5952,19 +5952,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442185</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353745</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
@@ -5977,7 +5977,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D31" t="n">
         <v>1.633110884353741</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="32">
@@ -5999,7 +5999,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D32" t="n">
         <v>1.633110884353741</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="33">
@@ -6312,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -6356,13 +6356,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -6378,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6400,13 +6400,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666661</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
-        <v>3.01097222222221</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -6485,7 +6485,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D10" t="n">
         <v>1.633110884353741</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="11">
@@ -6507,7 +6507,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D11" t="n">
         <v>1.633110884353741</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="12">
@@ -6529,7 +6529,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D12" t="n">
         <v>1.633110884353741</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="13">
@@ -6551,7 +6551,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D13" t="n">
         <v>1.633110884353741</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="14">
@@ -6573,7 +6573,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D14" t="n">
         <v>1.633110884353741</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="15">
@@ -6595,16 +6595,16 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D15" t="n">
-        <v>1.633110884353743</v>
+        <v>1.633110884353741</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="16">
@@ -6617,7 +6617,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D16" t="n">
         <v>1.633110884353742</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="17">
@@ -6639,16 +6639,16 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D17" t="n">
-        <v>1.633110884353742</v>
+        <v>1.633110884353741</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="18">
@@ -6661,7 +6661,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D18" t="n">
         <v>1.633110884353742</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="19">
@@ -6683,7 +6683,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D19" t="n">
         <v>1.633110884353741</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="20">
@@ -6705,7 +6705,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D20" t="n">
         <v>1.633110884353741</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="21">
@@ -6727,7 +6727,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D21" t="n">
         <v>1.633110884353741</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="22">
@@ -6749,7 +6749,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D22" t="n">
         <v>1.633110884353742</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="23">
@@ -6771,7 +6771,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D23" t="n">
         <v>1.633110884353741</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="24">
@@ -6793,7 +6793,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D24" t="n">
         <v>1.633110884353741</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="25">
@@ -6815,7 +6815,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D25" t="n">
         <v>1.633110884353741</v>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="26">
@@ -6837,7 +6837,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D26" t="n">
         <v>1.633110884353742</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="27">
@@ -6859,7 +6859,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D27" t="n">
         <v>1.633110884353741</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="28">
@@ -6881,7 +6881,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D28" t="n">
         <v>1.633110884353741</v>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="29">
@@ -6903,7 +6903,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D29" t="n">
         <v>1.633110884353741</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="30">
@@ -6925,7 +6925,7 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D30" t="n">
         <v>1.633110884353741</v>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="31">
@@ -6947,16 +6947,16 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D31" t="n">
-        <v>1.633110884353743</v>
+        <v>1.633110884353741</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="32">
@@ -6969,16 +6969,16 @@
         <v>1.356068027210884</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0153401360544218</v>
+        <v>0.01534013605442177</v>
       </c>
       <c r="D32" t="n">
-        <v>1.633110884353743</v>
+        <v>1.633110884353741</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="33">
@@ -7282,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="4">
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777795</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000064</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7370,13 +7370,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666665</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222213</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="16">
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081631</v>
       </c>
     </row>
     <row r="18">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3856510204081637</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="28">
@@ -7980,19 +7980,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -8252,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -8274,13 +8274,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.075</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8340,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666663</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222209</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="13">
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="21">
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="22">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="24">
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081639</v>
       </c>
     </row>
     <row r="29">
@@ -8950,19 +8950,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -9222,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -9244,13 +9244,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -9266,13 +9266,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.075000000000023</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9310,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666664</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222213</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="7">
@@ -9920,19 +9920,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -10192,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="3">
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075</v>
       </c>
     </row>
     <row r="5">
@@ -10258,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>1.290416666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10280,13 +10280,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666663</v>
+        <v>0.4527777777777791</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222207</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -10890,19 +10890,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333331</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="4">
@@ -11206,13 +11206,13 @@
         <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222221</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.543333333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -11225,16 +11225,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333332</v>
       </c>
     </row>
     <row r="6">
@@ -11247,16 +11247,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.51291666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555548</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502583333333332</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -12132,13 +12132,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -12154,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4527777777777778</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -12198,13 +12198,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777784</v>
+        <v>1.290416666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.010972222222222</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -12220,13 +12220,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.290416666666663</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E6" t="n">
-        <v>3.010972222222207</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -12830,19 +12830,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333333</v>
+        <v>1.003333333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111112</v>
+        <v>0.2341111111111113</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2173888888888889</v>
+        <v>0.217388888888889</v>
       </c>
     </row>
     <row r="35">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333331</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="4">
@@ -13146,13 +13146,13 @@
         <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222221</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.543333333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -13165,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333332</v>
       </c>
     </row>
     <row r="6">
@@ -13187,16 +13187,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.51291666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555548</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502583333333332</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -14100,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333331</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="4">
@@ -14116,13 +14116,13 @@
         <v>2.716666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3622222222222221</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.543333333333333</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="5">
@@ -14135,16 +14135,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.716666666666666</v>
+        <v>2.512916666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.3350555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5433333333333332</v>
+        <v>0.5025833333333332</v>
       </c>
     </row>
     <row r="6">
@@ -14157,16 +14157,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.51291666666666</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555548</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502583333333332</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="7">
@@ -15039,16 +15039,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>2.716666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.5433333333333332</v>
       </c>
     </row>
     <row r="3">
@@ -15061,16 +15061,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.716666666666666</v>
+        <v>3.395833333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3622222222222222</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5433333333333331</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -15083,16 +15083,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.31548813054499</v>
+        <v>3.107606318124206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4420650840726653</v>
+        <v>0.4143475090832275</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6630976261089978</v>
+        <v>0.6215212636248412</v>
       </c>
     </row>
     <row r="5">
@@ -15105,16 +15105,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.395833333333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6791666666666665</v>
+        <v>0.6384166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -15127,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.51291666666666</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555548</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502583333333332</v>
+        <v>0.6791666666666665</v>
       </c>
     </row>
     <row r="7">
@@ -15718,19 +15718,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="34">
@@ -15740,19 +15740,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="35">
@@ -15762,19 +15762,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C35" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="36">
@@ -15806,19 +15806,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.003333333333334</v>
+        <v>1.003333333333339</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2341111111111113</v>
+        <v>0.2341111111111125</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.217388888888889</v>
+        <v>0.2173888888888901</v>
       </c>
     </row>
     <row r="38">
@@ -16009,16 +16009,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>3.395833333333343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.6791666666666686</v>
       </c>
     </row>
     <row r="3">
@@ -16031,16 +16031,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.079158384030418</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4105544512040558</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6158316768060835</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -16053,16 +16053,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777766</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999988</v>
+        <v>0.6791666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -16075,16 +16075,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.395833333333333</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.6384166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -16097,16 +16097,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.51291666666666</v>
+        <v>3.395833333333341</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555548</v>
+        <v>0.4527777777777789</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502583333333332</v>
+        <v>0.6791666666666683</v>
       </c>
     </row>
     <row r="7">
@@ -16979,16 +16979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.395833333333333</v>
+        <v>3.395833333333343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6791666666666666</v>
+        <v>0.6791666666666686</v>
       </c>
     </row>
     <row r="3">
@@ -17001,16 +17001,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.079158384030418</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4105544512040558</v>
+        <v>0.4527777777777777</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6158316768060835</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -17026,13 +17026,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777766</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999988</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -17045,16 +17045,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6384166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -17067,16 +17067,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.51291666666666</v>
+        <v>3.395833333333341</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3350555555555548</v>
+        <v>0.4527777777777789</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502583333333332</v>
+        <v>0.6791666666666683</v>
       </c>
     </row>
     <row r="7">
@@ -17949,16 +17949,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.395833333333343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>0.6791666666666686</v>
       </c>
     </row>
     <row r="3">
@@ -17971,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.395833333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.4527777777777777</v>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6791666666666665</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -17996,13 +17996,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777766</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999988</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -18015,16 +18015,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -18037,16 +18037,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333327</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111104</v>
+        <v>0.4527777777777789</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666654</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -18210,19 +18210,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353744</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081666</v>
       </c>
     </row>
     <row r="15">
@@ -18342,19 +18342,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="21">
@@ -18562,19 +18562,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
@@ -18922,13 +18922,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4527777777777777</v>
+        <v>0.4527777777777792</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.074999999999999</v>
+        <v>4.075000000000012</v>
       </c>
     </row>
     <row r="3">
@@ -18966,13 +18966,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4527777777777766</v>
+        <v>0.4527777777777778</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.074999999999988</v>
+        <v>4.074999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -18985,16 +18985,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3.192083333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4527777777777785</v>
+        <v>0.4256111111111111</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.075</v>
+        <v>0.6384166666666665</v>
       </c>
     </row>
     <row r="6">
@@ -19007,16 +19007,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.192083333333327</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4256111111111104</v>
+        <v>0.4527777777777789</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6384166666666654</v>
+        <v>4.075000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -19180,19 +19180,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210889</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353744</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081666</v>
       </c>
     </row>
     <row r="15">
@@ -19312,19 +19312,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D20" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="21">
@@ -19532,19 +19532,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.356068027210884</v>
+        <v>1.356068027210887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01534013605442177</v>
+        <v>0.01534013605442205</v>
       </c>
       <c r="D30" t="n">
-        <v>1.633110884353741</v>
+        <v>1.633110884353743</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3856510204081631</v>
+        <v>0.3856510204081652</v>
       </c>
     </row>
     <row r="31">
